--- a/Homework/Project_3_Folder/Project3_Part1.xlsx
+++ b/Homework/Project_3_Folder/Project3_Part1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ETE4990\homeworkfolder-bryandelion\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ETE4990\homeworkfolder-bryandelion\Homework\Project_3_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF97328-3CD4-4A62-8247-157BEC7F3837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E480D39-8689-4BB1-A885-A1E5226DAB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A3D150B4-CDAE-444D-96C2-31EA07BFEE5A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D150B4-CDAE-444D-96C2-31EA07BFEE5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Team_Py_Pair_Review" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>file name typo, "Ultilities"
 Ultilities.py should be Utilities.py
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t xml:space="preserve">This one is adding a bit to what brian has said about how this code is organizing the enemeny stats, and introduced considerations to future expansions </t>
+  </si>
+  <si>
+    <t>Refactor the inventory interaction section (around lines 31–61) into a separate function like handle_inventory(character).
+the idea here is to reduce the complexity making the explore_room loop more readable and enabling the code to reuse for future inventory actions</t>
+  </si>
+  <si>
+    <t>this is a general comment on two main functions Where: explore_room() and encounter_enemy() functions.
+These functions are very long, handling multiple responsibilities (e.g., user input, logic, UI).
+Break them smaller to handle_inventory_use(), print_room_status(), etc., for clarity / reusability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general comment on two functions, snippets of utilization </t>
   </si>
 </sst>
 </file>
@@ -217,10 +229,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -777,6 +789,138 @@
         <a:xfrm>
           <a:off x="4528458" y="5290456"/>
           <a:ext cx="2188029" cy="1979645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1600201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2754086</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1733457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1141BA27-4E3D-2A53-202A-E739F89FE660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4321629" y="8882744"/>
+          <a:ext cx="2699657" cy="133256"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2623458</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>533658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F84D69-D835-E442-36F2-CA41AF95A777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4310744" y="11723914"/>
+          <a:ext cx="2579914" cy="152658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>947058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2710543</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1108904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1D958C-0367-F857-5AF0-16EBDCDC6CAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4180114" y="12289972"/>
+          <a:ext cx="2797629" cy="161846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1176,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088D717E-5E6E-4C38-BCDB-3FC557C32C1A}">
   <dimension ref="F2:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1301,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A60C9E-9415-4B98-86B2-87B20FCE28F3}">
   <dimension ref="F2:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
@@ -1440,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0054B90B-019C-42B4-8A67-022D664E5B0D}">
-  <dimension ref="G3:J10"/>
+  <dimension ref="G3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,15 +1622,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="7:10" ht="319.8" x14ac:dyDescent="0.3">
       <c r="G6" s="3">
         <v>4</v>
       </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="G7" s="3">
         <v>5</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
@@ -1502,6 +1654,41 @@
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G10" s="3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G16" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="3">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Homework/Project_3_Folder/Project3_Part1.xlsx
+++ b/Homework/Project_3_Folder/Project3_Part1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ETE4990\homeworkfolder-bryandelion\Homework\Project_3_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E480D39-8689-4BB1-A885-A1E5226DAB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2904B96-2326-4D75-AE39-4FDC6971354A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D150B4-CDAE-444D-96C2-31EA07BFEE5A}"/>
   </bookViews>
@@ -88,9 +88,6 @@
 so that you can avoid players accidently using items</t>
   </si>
   <si>
-    <t>add user feedback, I can see how lacking a promt here would make the UX tougher for less tech players, in other words add -----print(f"You do not meet the requirements to equip {item['name']}.")</t>
-  </si>
-  <si>
     <t>I think this early on you could use a method of detecting future class mismathces or broken/ damaged logic early, I was able to find some logic that adds logging or error raises, add the following just afer 137ln
 if type(player) not in primary_stats:
 logging.warning(f"Unknown class: {type(player).name}")</t>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">general comment on two functions, snippets of utilization </t>
+  </si>
+  <si>
+    <t>add user feedback, I can see how lacking a promt here would make the UX tougher for less tech players, in other words add (f"You do not meet the requirements to equip {item['name']}.")</t>
   </si>
 </sst>
 </file>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088D717E-5E6E-4C38-BCDB-3FC557C32C1A}">
   <dimension ref="F2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="6:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="6:10" ht="144" x14ac:dyDescent="0.3">
@@ -1361,12 +1361,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="6:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="F5" s="3">
         <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="6:10" ht="87" customHeight="1" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="6:10" x14ac:dyDescent="0.3">
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A60C9E-9415-4B98-86B2-87B20FCE28F3}">
   <dimension ref="F2:I19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F10"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="6:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="6:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="6:9" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="6:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -1496,10 +1496,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="6:9" ht="100.8" x14ac:dyDescent="0.3">
@@ -1507,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="6:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -1515,7 +1515,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="6:9" ht="72" x14ac:dyDescent="0.3">
@@ -1523,7 +1523,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="6:9" x14ac:dyDescent="0.3">
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0054B90B-019C-42B4-8A67-022D664E5B0D}">
   <dimension ref="G3:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="7:10" ht="228.6" x14ac:dyDescent="0.3">
@@ -1608,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="7:10" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1616,10 +1616,10 @@
         <v>3</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="7:10" ht="319.8" x14ac:dyDescent="0.3">
@@ -1627,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="7:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1635,10 +1635,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="7:10" x14ac:dyDescent="0.3">
